--- a/aisd_lab_4_hash_table_open_adressing/część II tableki pomiary.xlsx
+++ b/aisd_lab_4_hash_table_open_adressing/część II tableki pomiary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcbfed9491a2337/studia/sem III 2021Z/AISD/2021Z_AISD_lab_git_aisd_2021_4_gr1/aisd_lab_4_hash_table_open_adressing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{2C79FE51-1BA6-4B9A-9CD7-A649FB79FE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB67740D-6627-4925-BBCE-23C64A598602}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{2C79FE51-1BA6-4B9A-9CD7-A649FB79FE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B166D2-C899-4A87-ACD4-E07C20EFCA82}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linearResults" sheetId="2" r:id="rId1"/>
@@ -3344,9 +3344,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Średni czas wstawiania</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3459,9 +3456,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Średni czas odczytu</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -7204,7 +7198,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
-            <a:t> 512 i 1024 końcowy rozmiar tablicy mieszającej to bylo ~130k, czyli dwa razy mniej niż dla pozostałych początkowych rozmiarów. To zapewne tłumaczy skok po pierwszych dwóch rozmiarach.</a:t>
+            <a:t> 512 i 1024 końcowy rozmiar tablicy mieszającej to bylo ~130k, czyli dwa razy mniej niż dla pozostałych początkowych rozmiarów (jeden resize mniej). To zapewne tłumaczy skok po pierwszych dwóch rozmiarach.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7216,7 +7210,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
-            <a:t>Wyciąganie elementów prezentuje oczekiwaną stałą długość.</a:t>
+            <a:t>Odczyt elementów prezentuje oczekiwaną stałą długość.</a:t>
           </a:r>
           <a:endParaRPr lang="pl-PL" sz="1100"/>
         </a:p>
@@ -7354,7 +7348,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7885,8 +7879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
